--- a/Financials/Yearly/CBD_YR_FIN.xlsx
+++ b/Financials/Yearly/CBD_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F847E93-88B0-4452-9BEF-4113C600252A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CBD" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>CBD</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,140 +689,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11072800</v>
+        <v>12662100</v>
       </c>
       <c r="E8" s="3">
-        <v>10283900</v>
+        <v>11443300</v>
       </c>
       <c r="F8" s="3">
-        <v>9228100</v>
+        <v>10628000</v>
       </c>
       <c r="G8" s="3">
-        <v>16226200</v>
+        <v>9536800</v>
       </c>
       <c r="H8" s="3">
-        <v>14352400</v>
+        <v>16769000</v>
       </c>
       <c r="I8" s="3">
-        <v>12656000</v>
+        <v>14832600</v>
       </c>
       <c r="J8" s="3">
+        <v>13079500</v>
+      </c>
+      <c r="K8" s="3">
         <v>11559200</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8417600</v>
+        <v>9699900</v>
       </c>
       <c r="E9" s="3">
-        <v>7921900</v>
+        <v>8626200</v>
       </c>
       <c r="F9" s="3">
-        <v>6976800</v>
+        <v>8187000</v>
       </c>
       <c r="G9" s="3">
-        <v>12059200</v>
+        <v>7210200</v>
       </c>
       <c r="H9" s="3">
-        <v>10605400</v>
+        <v>12462600</v>
       </c>
       <c r="I9" s="3">
-        <v>9231100</v>
+        <v>10960200</v>
       </c>
       <c r="J9" s="3">
+        <v>9539900</v>
+      </c>
+      <c r="K9" s="3">
         <v>8418100</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2655200</v>
+        <v>2962200</v>
       </c>
       <c r="E10" s="3">
-        <v>2362000</v>
+        <v>2817100</v>
       </c>
       <c r="F10" s="3">
-        <v>2251300</v>
+        <v>2441000</v>
       </c>
       <c r="G10" s="3">
-        <v>4167000</v>
+        <v>2326600</v>
       </c>
       <c r="H10" s="3">
-        <v>3747000</v>
+        <v>4306400</v>
       </c>
       <c r="I10" s="3">
-        <v>3425000</v>
+        <v>3872400</v>
       </c>
       <c r="J10" s="3">
+        <v>3539600</v>
+      </c>
+      <c r="K10" s="3">
         <v>3141100</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +846,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,9 +873,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,63 +903,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>26500</v>
+        <v>37700</v>
       </c>
       <c r="E14" s="3">
-        <v>24600</v>
+        <v>27400</v>
       </c>
       <c r="F14" s="3">
-        <v>28800</v>
+        <v>25400</v>
       </c>
       <c r="G14" s="3">
-        <v>90800</v>
+        <v>29700</v>
       </c>
       <c r="H14" s="3">
-        <v>142100</v>
+        <v>93800</v>
       </c>
       <c r="I14" s="3">
-        <v>23600</v>
+        <v>146900</v>
       </c>
       <c r="J14" s="3">
+        <v>24400</v>
+      </c>
+      <c r="K14" s="3">
         <v>42800</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>193300</v>
+        <v>215400</v>
       </c>
       <c r="E15" s="3">
-        <v>175400</v>
+        <v>199700</v>
       </c>
       <c r="F15" s="3">
-        <v>161300</v>
+        <v>181300</v>
       </c>
       <c r="G15" s="3">
-        <v>203200</v>
+        <v>166600</v>
       </c>
       <c r="H15" s="3">
-        <v>195200</v>
+        <v>210000</v>
       </c>
       <c r="I15" s="3">
-        <v>186300</v>
+        <v>201800</v>
       </c>
       <c r="J15" s="3">
+        <v>192500</v>
+      </c>
+      <c r="K15" s="3">
         <v>168800</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +977,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10698500</v>
+        <v>12104000</v>
       </c>
       <c r="E17" s="3">
-        <v>10071600</v>
+        <v>11063300</v>
       </c>
       <c r="F17" s="3">
-        <v>8828200</v>
+        <v>10408500</v>
       </c>
       <c r="G17" s="3">
-        <v>15277000</v>
+        <v>9123500</v>
       </c>
       <c r="H17" s="3">
-        <v>13620800</v>
+        <v>15788100</v>
       </c>
       <c r="I17" s="3">
-        <v>11944300</v>
+        <v>14076500</v>
       </c>
       <c r="J17" s="3">
+        <v>12343900</v>
+      </c>
+      <c r="K17" s="3">
         <v>11037600</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>374400</v>
+        <v>558100</v>
       </c>
       <c r="E18" s="3">
-        <v>212400</v>
+        <v>380000</v>
       </c>
       <c r="F18" s="3">
-        <v>399900</v>
+        <v>219500</v>
       </c>
       <c r="G18" s="3">
-        <v>949200</v>
+        <v>413300</v>
       </c>
       <c r="H18" s="3">
-        <v>731600</v>
+        <v>980900</v>
       </c>
       <c r="I18" s="3">
-        <v>711700</v>
+        <v>756100</v>
       </c>
       <c r="J18" s="3">
+        <v>735600</v>
+      </c>
+      <c r="K18" s="3">
         <v>521600</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1051,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-57600</v>
+        <v>-21500</v>
       </c>
       <c r="E20" s="3">
-        <v>-49100</v>
+        <v>-59500</v>
       </c>
       <c r="F20" s="3">
-        <v>-17400</v>
+        <v>-50800</v>
       </c>
       <c r="G20" s="3">
-        <v>-203200</v>
+        <v>-17900</v>
       </c>
       <c r="H20" s="3">
-        <v>-147100</v>
+        <v>-210000</v>
       </c>
       <c r="I20" s="3">
-        <v>372400</v>
+        <v>-152000</v>
       </c>
       <c r="J20" s="3">
+        <v>384900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-153300</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>520400</v>
+        <v>759200</v>
       </c>
       <c r="E21" s="3">
-        <v>429400</v>
+        <v>529100</v>
       </c>
       <c r="F21" s="3">
-        <v>651900</v>
+        <v>441400</v>
       </c>
       <c r="G21" s="3">
-        <v>973000</v>
+        <v>671300</v>
       </c>
       <c r="H21" s="3">
-        <v>796000</v>
+        <v>1003600</v>
       </c>
       <c r="I21" s="3">
-        <v>1288000</v>
+        <v>820800</v>
       </c>
       <c r="J21" s="3">
+        <v>1329300</v>
+      </c>
+      <c r="K21" s="3">
         <v>541000</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>123500</v>
+        <v>100000</v>
       </c>
       <c r="E22" s="3">
-        <v>174900</v>
+        <v>127700</v>
       </c>
       <c r="F22" s="3">
-        <v>173200</v>
+        <v>180700</v>
       </c>
       <c r="G22" s="3">
-        <v>170400</v>
+        <v>179000</v>
       </c>
       <c r="H22" s="3">
-        <v>148800</v>
+        <v>176100</v>
       </c>
       <c r="I22" s="3">
-        <v>668400</v>
+        <v>153800</v>
       </c>
       <c r="J22" s="3">
+        <v>690700</v>
+      </c>
+      <c r="K22" s="3">
         <v>168700</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>193300</v>
+        <v>436600</v>
       </c>
       <c r="E23" s="3">
-        <v>-11700</v>
+        <v>192800</v>
       </c>
       <c r="F23" s="3">
-        <v>209400</v>
+        <v>-12000</v>
       </c>
       <c r="G23" s="3">
-        <v>575500</v>
+        <v>216400</v>
       </c>
       <c r="H23" s="3">
-        <v>435600</v>
+        <v>594800</v>
       </c>
       <c r="I23" s="3">
-        <v>415800</v>
+        <v>450200</v>
       </c>
       <c r="J23" s="3">
+        <v>429700</v>
+      </c>
+      <c r="K23" s="3">
         <v>199600</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>73700</v>
+        <v>115100</v>
       </c>
       <c r="E24" s="3">
-        <v>6000</v>
+        <v>76100</v>
       </c>
       <c r="F24" s="3">
-        <v>56800</v>
+        <v>6200</v>
       </c>
       <c r="G24" s="3">
-        <v>182600</v>
+        <v>58700</v>
       </c>
       <c r="H24" s="3">
-        <v>89300</v>
+        <v>188700</v>
       </c>
       <c r="I24" s="3">
-        <v>129000</v>
+        <v>92300</v>
       </c>
       <c r="J24" s="3">
+        <v>133300</v>
+      </c>
+      <c r="K24" s="3">
         <v>21100</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1228,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>119600</v>
+        <v>321500</v>
       </c>
       <c r="E26" s="3">
-        <v>-17600</v>
+        <v>116700</v>
       </c>
       <c r="F26" s="3">
-        <v>152600</v>
+        <v>-18200</v>
       </c>
       <c r="G26" s="3">
-        <v>393000</v>
+        <v>157700</v>
       </c>
       <c r="H26" s="3">
-        <v>346300</v>
+        <v>406100</v>
       </c>
       <c r="I26" s="3">
-        <v>286800</v>
+        <v>357900</v>
       </c>
       <c r="J26" s="3">
+        <v>296400</v>
+      </c>
+      <c r="K26" s="3">
         <v>178500</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>58500</v>
+        <v>324800</v>
       </c>
       <c r="E27" s="3">
-        <v>129700</v>
+        <v>57400</v>
       </c>
       <c r="F27" s="3">
-        <v>286800</v>
+        <v>134100</v>
       </c>
       <c r="G27" s="3">
-        <v>299400</v>
+        <v>296400</v>
       </c>
       <c r="H27" s="3">
-        <v>261000</v>
+        <v>309500</v>
       </c>
       <c r="I27" s="3">
-        <v>93300</v>
+        <v>269700</v>
       </c>
       <c r="J27" s="3">
+        <v>96500</v>
+      </c>
+      <c r="K27" s="3">
         <v>64400</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,23 +1318,26 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>95000</v>
+        <v>-19000</v>
       </c>
       <c r="E29" s="3">
-        <v>-249300</v>
+        <v>91300</v>
       </c>
       <c r="F29" s="3">
-        <v>-221000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+        <v>-257700</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-228400</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1253,9 +1348,12 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1378,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1408,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>57600</v>
+        <v>21500</v>
       </c>
       <c r="E32" s="3">
-        <v>49100</v>
+        <v>59500</v>
       </c>
       <c r="F32" s="3">
-        <v>17400</v>
+        <v>50800</v>
       </c>
       <c r="G32" s="3">
-        <v>203200</v>
+        <v>17900</v>
       </c>
       <c r="H32" s="3">
-        <v>147100</v>
+        <v>210000</v>
       </c>
       <c r="I32" s="3">
-        <v>-372400</v>
+        <v>152000</v>
       </c>
       <c r="J32" s="3">
+        <v>-384900</v>
+      </c>
+      <c r="K32" s="3">
         <v>153300</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>153600</v>
+        <v>305900</v>
       </c>
       <c r="E33" s="3">
-        <v>-119600</v>
+        <v>148700</v>
       </c>
       <c r="F33" s="3">
-        <v>65700</v>
+        <v>-123600</v>
       </c>
       <c r="G33" s="3">
-        <v>299400</v>
+        <v>67900</v>
       </c>
       <c r="H33" s="3">
-        <v>261000</v>
+        <v>309500</v>
       </c>
       <c r="I33" s="3">
-        <v>93300</v>
+        <v>269700</v>
       </c>
       <c r="J33" s="3">
+        <v>96500</v>
+      </c>
+      <c r="K33" s="3">
         <v>64400</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1498,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>153600</v>
+        <v>305900</v>
       </c>
       <c r="E35" s="3">
-        <v>-119600</v>
+        <v>148700</v>
       </c>
       <c r="F35" s="3">
-        <v>65700</v>
+        <v>-123600</v>
       </c>
       <c r="G35" s="3">
-        <v>299400</v>
+        <v>67900</v>
       </c>
       <c r="H35" s="3">
-        <v>261000</v>
+        <v>309500</v>
       </c>
       <c r="I35" s="3">
-        <v>93300</v>
+        <v>269700</v>
       </c>
       <c r="J35" s="3">
+        <v>96500</v>
+      </c>
+      <c r="K35" s="3">
         <v>64400</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1580,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,35 +1594,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>940700</v>
+        <v>1120100</v>
       </c>
       <c r="E41" s="3">
-        <v>1268200</v>
+        <v>972200</v>
       </c>
       <c r="F41" s="3">
-        <v>2732600</v>
+        <v>1310600</v>
       </c>
       <c r="G41" s="3">
-        <v>2765800</v>
+        <v>2824000</v>
       </c>
       <c r="H41" s="3">
-        <v>2075700</v>
+        <v>2858400</v>
       </c>
       <c r="I41" s="3">
-        <v>3515900</v>
+        <v>2145200</v>
       </c>
       <c r="J41" s="3">
+        <v>3633500</v>
+      </c>
+      <c r="K41" s="3">
         <v>129600</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1515,210 +1639,234 @@
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H42" s="3">
-        <v>6100</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>6300</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>1103400</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>367400</v>
+        <v>350000</v>
       </c>
       <c r="E43" s="3">
-        <v>333200</v>
+        <v>379700</v>
       </c>
       <c r="F43" s="3">
-        <v>1157300</v>
+        <v>344300</v>
       </c>
       <c r="G43" s="3">
-        <v>1052100</v>
+        <v>1196000</v>
       </c>
       <c r="H43" s="3">
-        <v>905700</v>
+        <v>1087300</v>
       </c>
       <c r="I43" s="3">
-        <v>950600</v>
+        <v>936000</v>
       </c>
       <c r="J43" s="3">
+        <v>982400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1675400</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2392500</v>
+        <v>1514900</v>
       </c>
       <c r="E44" s="3">
-        <v>1151300</v>
+        <v>2472500</v>
       </c>
       <c r="F44" s="3">
-        <v>2224000</v>
+        <v>1189900</v>
       </c>
       <c r="G44" s="3">
-        <v>2074900</v>
+        <v>2298400</v>
       </c>
       <c r="H44" s="3">
-        <v>1583100</v>
+        <v>2144400</v>
       </c>
       <c r="I44" s="3">
-        <v>2857700</v>
+        <v>1636100</v>
       </c>
       <c r="J44" s="3">
+        <v>2953300</v>
+      </c>
+      <c r="K44" s="3">
         <v>1377500</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5686200</v>
+        <v>6322600</v>
       </c>
       <c r="E45" s="3">
-        <v>5099300</v>
+        <v>5876500</v>
       </c>
       <c r="F45" s="3">
-        <v>78100</v>
+        <v>5269900</v>
       </c>
       <c r="G45" s="3">
-        <v>66200</v>
+        <v>80800</v>
       </c>
       <c r="H45" s="3">
-        <v>46000</v>
+        <v>68500</v>
       </c>
       <c r="I45" s="3">
-        <v>42800</v>
-      </c>
-      <c r="J45" s="3" t="s">
+        <v>47600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>44300</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8190600</v>
+        <v>9307600</v>
       </c>
       <c r="E46" s="3">
-        <v>7852000</v>
+        <v>8464600</v>
       </c>
       <c r="F46" s="3">
-        <v>6192100</v>
+        <v>8114700</v>
       </c>
       <c r="G46" s="3">
-        <v>5959100</v>
+        <v>6399200</v>
       </c>
       <c r="H46" s="3">
-        <v>4616700</v>
+        <v>6158500</v>
       </c>
       <c r="I46" s="3">
-        <v>4138000</v>
+        <v>4771200</v>
       </c>
       <c r="J46" s="3">
+        <v>4276500</v>
+      </c>
+      <c r="K46" s="3">
         <v>4285900</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>657400</v>
+        <v>798400</v>
       </c>
       <c r="E47" s="3">
-        <v>391200</v>
+        <v>679400</v>
       </c>
       <c r="F47" s="3">
-        <v>962800</v>
+        <v>404300</v>
       </c>
       <c r="G47" s="3">
-        <v>1759900</v>
+        <v>995000</v>
       </c>
       <c r="H47" s="3">
-        <v>659000</v>
+        <v>1818800</v>
       </c>
       <c r="I47" s="3">
-        <v>785200</v>
+        <v>681000</v>
       </c>
       <c r="J47" s="3">
+        <v>811500</v>
+      </c>
+      <c r="K47" s="3">
         <v>538500</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2272200</v>
+        <v>2479200</v>
       </c>
       <c r="E48" s="3">
-        <v>2283600</v>
+        <v>2348200</v>
       </c>
       <c r="F48" s="3">
-        <v>2580500</v>
+        <v>2360000</v>
       </c>
       <c r="G48" s="3">
-        <v>2418500</v>
+        <v>2666900</v>
       </c>
       <c r="H48" s="3">
-        <v>2246000</v>
+        <v>2499400</v>
       </c>
       <c r="I48" s="3">
-        <v>1887600</v>
+        <v>2321200</v>
       </c>
       <c r="J48" s="3">
+        <v>1950800</v>
+      </c>
+      <c r="K48" s="3">
         <v>1825400</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>954600</v>
+        <v>685800</v>
       </c>
       <c r="E49" s="3">
-        <v>473300</v>
+        <v>986600</v>
       </c>
       <c r="F49" s="3">
-        <v>1623200</v>
+        <v>489200</v>
       </c>
       <c r="G49" s="3">
-        <v>1599600</v>
+        <v>1677500</v>
       </c>
       <c r="H49" s="3">
-        <v>1414200</v>
+        <v>1653100</v>
       </c>
       <c r="I49" s="3">
-        <v>3703000</v>
+        <v>1461500</v>
       </c>
       <c r="J49" s="3">
+        <v>3826900</v>
+      </c>
+      <c r="K49" s="3">
         <v>1225400</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1891,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1921,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>237700</v>
+        <v>278400</v>
       </c>
       <c r="E52" s="3">
-        <v>217300</v>
+        <v>245600</v>
       </c>
       <c r="F52" s="3">
-        <v>361000</v>
+        <v>224600</v>
       </c>
       <c r="G52" s="3">
-        <v>386300</v>
+        <v>373000</v>
       </c>
       <c r="H52" s="3">
-        <v>493200</v>
+        <v>399200</v>
       </c>
       <c r="I52" s="3">
-        <v>651100</v>
+        <v>509700</v>
       </c>
       <c r="J52" s="3">
+        <v>672800</v>
+      </c>
+      <c r="K52" s="3">
         <v>502200</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1981,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11835200</v>
+        <v>13549400</v>
       </c>
       <c r="E54" s="3">
-        <v>11217400</v>
+        <v>12231100</v>
       </c>
       <c r="F54" s="3">
-        <v>11719500</v>
+        <v>11592700</v>
       </c>
       <c r="G54" s="3">
-        <v>11249200</v>
+        <v>12111600</v>
       </c>
       <c r="H54" s="3">
-        <v>9429100</v>
+        <v>11625600</v>
       </c>
       <c r="I54" s="3">
-        <v>8641100</v>
+        <v>9744600</v>
       </c>
       <c r="J54" s="3">
+        <v>8930300</v>
+      </c>
+      <c r="K54" s="3">
         <v>8377400</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +2028,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2042,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2016400</v>
+        <v>2370500</v>
       </c>
       <c r="E57" s="3">
-        <v>1794100</v>
+        <v>2083900</v>
       </c>
       <c r="F57" s="3">
-        <v>3847200</v>
+        <v>1854100</v>
       </c>
       <c r="G57" s="3">
-        <v>3340600</v>
+        <v>3975900</v>
       </c>
       <c r="H57" s="3">
-        <v>2120500</v>
+        <v>3452400</v>
       </c>
       <c r="I57" s="3">
-        <v>3116500</v>
+        <v>2191400</v>
       </c>
       <c r="J57" s="3">
+        <v>3220700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1564600</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>310300</v>
+        <v>516900</v>
       </c>
       <c r="E58" s="3">
-        <v>733600</v>
+        <v>320700</v>
       </c>
       <c r="F58" s="3">
-        <v>1892400</v>
+        <v>758100</v>
       </c>
       <c r="G58" s="3">
-        <v>3360700</v>
+        <v>1955700</v>
       </c>
       <c r="H58" s="3">
-        <v>1282900</v>
+        <v>3473200</v>
       </c>
       <c r="I58" s="3">
-        <v>2285100</v>
+        <v>1325800</v>
       </c>
       <c r="J58" s="3">
+        <v>2361500</v>
+      </c>
+      <c r="K58" s="3">
         <v>1219900</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4865600</v>
+        <v>5518100</v>
       </c>
       <c r="E59" s="3">
-        <v>4314900</v>
+        <v>5028400</v>
       </c>
       <c r="F59" s="3">
-        <v>1476300</v>
+        <v>4459200</v>
       </c>
       <c r="G59" s="3">
-        <v>1644800</v>
+        <v>1525700</v>
       </c>
       <c r="H59" s="3">
-        <v>1254900</v>
+        <v>1699800</v>
       </c>
       <c r="I59" s="3">
-        <v>1602300</v>
+        <v>1296900</v>
       </c>
       <c r="J59" s="3">
+        <v>1655900</v>
+      </c>
+      <c r="K59" s="3">
         <v>564900</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7192300</v>
+        <v>8405400</v>
       </c>
       <c r="E60" s="3">
-        <v>6842500</v>
+        <v>7433000</v>
       </c>
       <c r="F60" s="3">
-        <v>6269700</v>
+        <v>7071500</v>
       </c>
       <c r="G60" s="3">
-        <v>5949200</v>
+        <v>6479500</v>
       </c>
       <c r="H60" s="3">
-        <v>4220500</v>
+        <v>6148200</v>
       </c>
       <c r="I60" s="3">
-        <v>3322100</v>
+        <v>4361700</v>
       </c>
       <c r="J60" s="3">
+        <v>3433300</v>
+      </c>
+      <c r="K60" s="3">
         <v>3349400</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>827800</v>
+        <v>899600</v>
       </c>
       <c r="E61" s="3">
-        <v>722400</v>
+        <v>855500</v>
       </c>
       <c r="F61" s="3">
-        <v>1033000</v>
+        <v>746600</v>
       </c>
       <c r="G61" s="3">
-        <v>777500</v>
+        <v>1067600</v>
       </c>
       <c r="H61" s="3">
-        <v>1072200</v>
+        <v>803500</v>
       </c>
       <c r="I61" s="3">
-        <v>1558200</v>
+        <v>1108000</v>
       </c>
       <c r="J61" s="3">
+        <v>1610300</v>
+      </c>
+      <c r="K61" s="3">
         <v>1548200</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>579800</v>
+        <v>670700</v>
       </c>
       <c r="E62" s="3">
-        <v>527400</v>
+        <v>599200</v>
       </c>
       <c r="F62" s="3">
-        <v>1104500</v>
+        <v>545100</v>
       </c>
       <c r="G62" s="3">
-        <v>1309100</v>
+        <v>1141400</v>
       </c>
       <c r="H62" s="3">
-        <v>1267500</v>
+        <v>1352900</v>
       </c>
       <c r="I62" s="3">
-        <v>1410800</v>
+        <v>1309900</v>
       </c>
       <c r="J62" s="3">
+        <v>1458000</v>
+      </c>
+      <c r="K62" s="3">
         <v>975600</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2249,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2279,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2309,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9307700</v>
+        <v>10708000</v>
       </c>
       <c r="E66" s="3">
-        <v>8771400</v>
+        <v>9619100</v>
       </c>
       <c r="F66" s="3">
-        <v>9150900</v>
+        <v>9064800</v>
       </c>
       <c r="G66" s="3">
-        <v>8650100</v>
+        <v>9457100</v>
       </c>
       <c r="H66" s="3">
-        <v>7076500</v>
+        <v>8939500</v>
       </c>
       <c r="I66" s="3">
-        <v>6533800</v>
+        <v>7313300</v>
       </c>
       <c r="J66" s="3">
+        <v>6752400</v>
+      </c>
+      <c r="K66" s="3">
         <v>6485700</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2356,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2383,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2413,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2443,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2473,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>870500</v>
+        <v>1133500</v>
       </c>
       <c r="E72" s="3">
-        <v>779000</v>
+        <v>899600</v>
       </c>
       <c r="F72" s="3">
-        <v>893600</v>
+        <v>805000</v>
       </c>
       <c r="G72" s="3">
-        <v>1826900</v>
+        <v>923500</v>
       </c>
       <c r="H72" s="3">
-        <v>1358300</v>
+        <v>1888000</v>
       </c>
       <c r="I72" s="3">
-        <v>1271600</v>
+        <v>1403700</v>
       </c>
       <c r="J72" s="3">
+        <v>1314100</v>
+      </c>
+      <c r="K72" s="3">
         <v>275700</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2533,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2563,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2593,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2527400</v>
+        <v>2841500</v>
       </c>
       <c r="E76" s="3">
-        <v>2446100</v>
+        <v>2612000</v>
       </c>
       <c r="F76" s="3">
-        <v>2568600</v>
+        <v>2527900</v>
       </c>
       <c r="G76" s="3">
-        <v>2599100</v>
+        <v>2654600</v>
       </c>
       <c r="H76" s="3">
-        <v>2352600</v>
+        <v>2686100</v>
       </c>
       <c r="I76" s="3">
-        <v>2107400</v>
+        <v>2431300</v>
       </c>
       <c r="J76" s="3">
+        <v>2177900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1891700</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2653,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>153600</v>
+        <v>305900</v>
       </c>
       <c r="E81" s="3">
-        <v>-119600</v>
+        <v>148700</v>
       </c>
       <c r="F81" s="3">
-        <v>65700</v>
+        <v>-123600</v>
       </c>
       <c r="G81" s="3">
-        <v>299400</v>
+        <v>67900</v>
       </c>
       <c r="H81" s="3">
-        <v>261000</v>
+        <v>309500</v>
       </c>
       <c r="I81" s="3">
-        <v>93300</v>
+        <v>269700</v>
       </c>
       <c r="J81" s="3">
+        <v>96500</v>
+      </c>
+      <c r="K81" s="3">
         <v>64400</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2735,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>206700</v>
+        <v>227900</v>
       </c>
       <c r="E83" s="3">
-        <v>270200</v>
+        <v>213600</v>
       </c>
       <c r="F83" s="3">
-        <v>273400</v>
+        <v>279200</v>
       </c>
       <c r="G83" s="3">
-        <v>230500</v>
+        <v>282500</v>
       </c>
       <c r="H83" s="3">
-        <v>214700</v>
+        <v>238200</v>
       </c>
       <c r="I83" s="3">
-        <v>206900</v>
+        <v>221900</v>
       </c>
       <c r="J83" s="3">
+        <v>213800</v>
+      </c>
+      <c r="K83" s="3">
         <v>175300</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2792,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2822,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2852,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2882,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2912,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>470100</v>
+        <v>663000</v>
       </c>
       <c r="E89" s="3">
-        <v>-323500</v>
+        <v>485800</v>
       </c>
       <c r="F89" s="3">
-        <v>1149100</v>
+        <v>-334300</v>
       </c>
       <c r="G89" s="3">
-        <v>1237900</v>
+        <v>1187600</v>
       </c>
       <c r="H89" s="3">
-        <v>1213600</v>
+        <v>1279300</v>
       </c>
       <c r="I89" s="3">
-        <v>1314600</v>
+        <v>1254200</v>
       </c>
       <c r="J89" s="3">
+        <v>1358600</v>
+      </c>
+      <c r="K89" s="3">
         <v>279800</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2959,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-425000</v>
+        <v>-469200</v>
       </c>
       <c r="E91" s="3">
-        <v>-383000</v>
+        <v>-359400</v>
       </c>
       <c r="F91" s="3">
-        <v>-492400</v>
+        <v>-324300</v>
       </c>
       <c r="G91" s="3">
-        <v>-464200</v>
+        <v>-405300</v>
       </c>
       <c r="H91" s="3">
-        <v>-458900</v>
+        <v>-353500</v>
       </c>
       <c r="I91" s="3">
-        <v>-345700</v>
+        <v>-424500</v>
       </c>
       <c r="J91" s="3">
+        <v>-335600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-360800</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +3016,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3046,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-394900</v>
+        <v>-486900</v>
       </c>
       <c r="E94" s="3">
-        <v>-501100</v>
+        <v>-408200</v>
       </c>
       <c r="F94" s="3">
-        <v>-459400</v>
+        <v>-517900</v>
       </c>
       <c r="G94" s="3">
-        <v>-402900</v>
+        <v>-474800</v>
       </c>
       <c r="H94" s="3">
-        <v>-487000</v>
+        <v>-416400</v>
       </c>
       <c r="I94" s="3">
-        <v>-324000</v>
+        <v>-503300</v>
       </c>
       <c r="J94" s="3">
+        <v>-334900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-336500</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3093,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-25100</v>
+        <v>-90000</v>
       </c>
       <c r="E96" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1000</v>
       </c>
-      <c r="F96" s="3">
-        <v>-107700</v>
-      </c>
       <c r="G96" s="3">
-        <v>-64000</v>
+        <v>-111300</v>
       </c>
       <c r="H96" s="3">
-        <v>-112300</v>
+        <v>-66100</v>
       </c>
       <c r="I96" s="3">
-        <v>-46200</v>
+        <v>-116100</v>
       </c>
       <c r="J96" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-45500</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3150,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3180,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,53 +3210,59 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-519500</v>
+        <v>10800</v>
       </c>
       <c r="E100" s="3">
-        <v>365900</v>
+        <v>-536900</v>
       </c>
       <c r="F100" s="3">
-        <v>-745700</v>
+        <v>378200</v>
       </c>
       <c r="G100" s="3">
-        <v>-157800</v>
+        <v>-770700</v>
       </c>
       <c r="H100" s="3">
-        <v>-408800</v>
+        <v>-163100</v>
       </c>
       <c r="I100" s="3">
-        <v>-465600</v>
+        <v>-422500</v>
       </c>
       <c r="J100" s="3">
+        <v>-481200</v>
+      </c>
+      <c r="K100" s="3">
         <v>342400</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E101" s="3">
-        <v>-6000</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>22800</v>
+        <v>-6200</v>
       </c>
       <c r="G101" s="3">
-        <v>12900</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
+        <v>23600</v>
+      </c>
+      <c r="H101" s="3">
+        <v>13300</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>8</v>
@@ -2987,34 +3270,40 @@
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-444300</v>
+        <v>186900</v>
       </c>
       <c r="E102" s="3">
-        <v>-464700</v>
+        <v>-459200</v>
       </c>
       <c r="F102" s="3">
-        <v>-33200</v>
+        <v>-480200</v>
       </c>
       <c r="G102" s="3">
-        <v>690200</v>
+        <v>-34400</v>
       </c>
       <c r="H102" s="3">
-        <v>317800</v>
+        <v>713200</v>
       </c>
       <c r="I102" s="3">
-        <v>525000</v>
+        <v>328400</v>
       </c>
       <c r="J102" s="3">
+        <v>542600</v>
+      </c>
+      <c r="K102" s="3">
         <v>285800</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/CBD_YR_FIN.xlsx
+++ b/Financials/Yearly/CBD_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F847E93-88B0-4452-9BEF-4113C600252A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="CBD" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,32 +654,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -744,97 +709,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12662100</v>
+        <v>11533100</v>
       </c>
       <c r="E8" s="3">
-        <v>11443300</v>
+        <v>10422900</v>
       </c>
       <c r="F8" s="3">
-        <v>10628000</v>
+        <v>9680300</v>
       </c>
       <c r="G8" s="3">
-        <v>9536800</v>
+        <v>8686500</v>
       </c>
       <c r="H8" s="3">
-        <v>16769000</v>
+        <v>15273800</v>
       </c>
       <c r="I8" s="3">
-        <v>14832600</v>
+        <v>13510100</v>
       </c>
       <c r="J8" s="3">
-        <v>13079500</v>
+        <v>11913300</v>
       </c>
       <c r="K8" s="3">
         <v>11559200</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9699900</v>
+        <v>8835000</v>
       </c>
       <c r="E9" s="3">
-        <v>8626200</v>
+        <v>7857000</v>
       </c>
       <c r="F9" s="3">
-        <v>8187000</v>
+        <v>7457000</v>
       </c>
       <c r="G9" s="3">
-        <v>7210200</v>
+        <v>6567300</v>
       </c>
       <c r="H9" s="3">
-        <v>12462600</v>
+        <v>11351400</v>
       </c>
       <c r="I9" s="3">
-        <v>10960200</v>
+        <v>9983000</v>
       </c>
       <c r="J9" s="3">
-        <v>9539900</v>
+        <v>8689300</v>
       </c>
       <c r="K9" s="3">
         <v>8418100</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2962200</v>
+        <v>2698100</v>
       </c>
       <c r="E10" s="3">
-        <v>2817100</v>
+        <v>2565900</v>
       </c>
       <c r="F10" s="3">
-        <v>2441000</v>
+        <v>2223300</v>
       </c>
       <c r="G10" s="3">
-        <v>2326600</v>
+        <v>2119200</v>
       </c>
       <c r="H10" s="3">
-        <v>4306400</v>
+        <v>3922400</v>
       </c>
       <c r="I10" s="3">
-        <v>3872400</v>
+        <v>3527100</v>
       </c>
       <c r="J10" s="3">
-        <v>3539600</v>
+        <v>3224000</v>
       </c>
       <c r="K10" s="3">
         <v>3141100</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,7 +813,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,7 +843,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,67 +873,67 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>37700</v>
+        <v>34300</v>
       </c>
       <c r="E14" s="3">
-        <v>27400</v>
+        <v>25000</v>
       </c>
       <c r="F14" s="3">
-        <v>25400</v>
+        <v>23100</v>
       </c>
       <c r="G14" s="3">
-        <v>29700</v>
+        <v>27100</v>
       </c>
       <c r="H14" s="3">
-        <v>93800</v>
+        <v>85500</v>
       </c>
       <c r="I14" s="3">
-        <v>146900</v>
+        <v>133800</v>
       </c>
       <c r="J14" s="3">
-        <v>24400</v>
+        <v>22200</v>
       </c>
       <c r="K14" s="3">
         <v>42800</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>215400</v>
+        <v>196200</v>
       </c>
       <c r="E15" s="3">
-        <v>199700</v>
+        <v>181900</v>
       </c>
       <c r="F15" s="3">
-        <v>181300</v>
+        <v>165100</v>
       </c>
       <c r="G15" s="3">
-        <v>166600</v>
+        <v>151800</v>
       </c>
       <c r="H15" s="3">
-        <v>210000</v>
+        <v>191300</v>
       </c>
       <c r="I15" s="3">
-        <v>201800</v>
+        <v>183800</v>
       </c>
       <c r="J15" s="3">
-        <v>192500</v>
+        <v>175400</v>
       </c>
       <c r="K15" s="3">
         <v>168800</v>
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -979,67 +944,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12104000</v>
+        <v>11024700</v>
       </c>
       <c r="E17" s="3">
-        <v>11063300</v>
+        <v>10076900</v>
       </c>
       <c r="F17" s="3">
-        <v>10408500</v>
+        <v>9480400</v>
       </c>
       <c r="G17" s="3">
-        <v>9123500</v>
+        <v>8310000</v>
       </c>
       <c r="H17" s="3">
-        <v>15788100</v>
+        <v>14380400</v>
       </c>
       <c r="I17" s="3">
-        <v>14076500</v>
+        <v>12821400</v>
       </c>
       <c r="J17" s="3">
-        <v>12343900</v>
+        <v>11243300</v>
       </c>
       <c r="K17" s="3">
         <v>11037600</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>558100</v>
+        <v>508400</v>
       </c>
       <c r="E18" s="3">
-        <v>380000</v>
+        <v>346100</v>
       </c>
       <c r="F18" s="3">
-        <v>219500</v>
+        <v>199900</v>
       </c>
       <c r="G18" s="3">
-        <v>413300</v>
+        <v>376400</v>
       </c>
       <c r="H18" s="3">
-        <v>980900</v>
+        <v>893400</v>
       </c>
       <c r="I18" s="3">
-        <v>756100</v>
+        <v>688700</v>
       </c>
       <c r="J18" s="3">
-        <v>735600</v>
+        <v>670000</v>
       </c>
       <c r="K18" s="3">
         <v>521600</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,157 +1018,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-21500</v>
+        <v>-19600</v>
       </c>
       <c r="E20" s="3">
-        <v>-59500</v>
+        <v>-54200</v>
       </c>
       <c r="F20" s="3">
-        <v>-50800</v>
+        <v>-46200</v>
       </c>
       <c r="G20" s="3">
-        <v>-17900</v>
+        <v>-16300</v>
       </c>
       <c r="H20" s="3">
-        <v>-210000</v>
+        <v>-191300</v>
       </c>
       <c r="I20" s="3">
-        <v>-152000</v>
+        <v>-138500</v>
       </c>
       <c r="J20" s="3">
-        <v>384900</v>
+        <v>350600</v>
       </c>
       <c r="K20" s="3">
         <v>-153300</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>759200</v>
+        <v>698700</v>
       </c>
       <c r="E21" s="3">
-        <v>529100</v>
+        <v>488600</v>
       </c>
       <c r="F21" s="3">
-        <v>441400</v>
+        <v>410800</v>
       </c>
       <c r="G21" s="3">
-        <v>671300</v>
+        <v>620300</v>
       </c>
       <c r="H21" s="3">
-        <v>1003600</v>
+        <v>921500</v>
       </c>
       <c r="I21" s="3">
-        <v>820800</v>
+        <v>754500</v>
       </c>
       <c r="J21" s="3">
-        <v>1329300</v>
+        <v>1217500</v>
       </c>
       <c r="K21" s="3">
         <v>541000</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100000</v>
+        <v>91100</v>
       </c>
       <c r="E22" s="3">
-        <v>127700</v>
+        <v>116300</v>
       </c>
       <c r="F22" s="3">
-        <v>180700</v>
+        <v>164600</v>
       </c>
       <c r="G22" s="3">
-        <v>179000</v>
+        <v>163000</v>
       </c>
       <c r="H22" s="3">
-        <v>176100</v>
+        <v>160400</v>
       </c>
       <c r="I22" s="3">
-        <v>153800</v>
+        <v>140100</v>
       </c>
       <c r="J22" s="3">
-        <v>690700</v>
+        <v>629100</v>
       </c>
       <c r="K22" s="3">
         <v>168700</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>436600</v>
+        <v>397700</v>
       </c>
       <c r="E23" s="3">
-        <v>192800</v>
+        <v>175600</v>
       </c>
       <c r="F23" s="3">
-        <v>-12000</v>
+        <v>-11000</v>
       </c>
       <c r="G23" s="3">
-        <v>216400</v>
+        <v>197100</v>
       </c>
       <c r="H23" s="3">
-        <v>594800</v>
+        <v>541800</v>
       </c>
       <c r="I23" s="3">
-        <v>450200</v>
+        <v>410100</v>
       </c>
       <c r="J23" s="3">
-        <v>429700</v>
+        <v>391400</v>
       </c>
       <c r="K23" s="3">
         <v>199600</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>115100</v>
+        <v>104900</v>
       </c>
       <c r="E24" s="3">
-        <v>76100</v>
+        <v>69400</v>
       </c>
       <c r="F24" s="3">
-        <v>6200</v>
+        <v>5600</v>
       </c>
       <c r="G24" s="3">
-        <v>58700</v>
+        <v>53500</v>
       </c>
       <c r="H24" s="3">
-        <v>188700</v>
+        <v>171900</v>
       </c>
       <c r="I24" s="3">
-        <v>92300</v>
+        <v>84100</v>
       </c>
       <c r="J24" s="3">
-        <v>133300</v>
+        <v>121400</v>
       </c>
       <c r="K24" s="3">
         <v>21100</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,67 +1198,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>321500</v>
+        <v>292800</v>
       </c>
       <c r="E26" s="3">
-        <v>116700</v>
+        <v>106300</v>
       </c>
       <c r="F26" s="3">
-        <v>-18200</v>
+        <v>-16600</v>
       </c>
       <c r="G26" s="3">
-        <v>157700</v>
+        <v>143600</v>
       </c>
       <c r="H26" s="3">
-        <v>406100</v>
+        <v>369900</v>
       </c>
       <c r="I26" s="3">
-        <v>357900</v>
+        <v>326000</v>
       </c>
       <c r="J26" s="3">
-        <v>296400</v>
+        <v>269900</v>
       </c>
       <c r="K26" s="3">
         <v>178500</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>324800</v>
+        <v>295900</v>
       </c>
       <c r="E27" s="3">
-        <v>57400</v>
+        <v>52300</v>
       </c>
       <c r="F27" s="3">
-        <v>134100</v>
+        <v>122100</v>
       </c>
       <c r="G27" s="3">
-        <v>296400</v>
+        <v>269900</v>
       </c>
       <c r="H27" s="3">
-        <v>309500</v>
+        <v>281900</v>
       </c>
       <c r="I27" s="3">
-        <v>269700</v>
+        <v>245700</v>
       </c>
       <c r="J27" s="3">
-        <v>96500</v>
+        <v>87900</v>
       </c>
       <c r="K27" s="3">
         <v>64400</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1323,21 +1288,21 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-19000</v>
+        <v>-17300</v>
       </c>
       <c r="E29" s="3">
-        <v>91300</v>
+        <v>83100</v>
       </c>
       <c r="F29" s="3">
-        <v>-257700</v>
+        <v>-234700</v>
       </c>
       <c r="G29" s="3">
-        <v>-228400</v>
+        <v>-208100</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1353,7 +1318,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1383,7 +1348,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1413,67 +1378,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>21500</v>
+        <v>19600</v>
       </c>
       <c r="E32" s="3">
-        <v>59500</v>
+        <v>54200</v>
       </c>
       <c r="F32" s="3">
-        <v>50800</v>
+        <v>46200</v>
       </c>
       <c r="G32" s="3">
-        <v>17900</v>
+        <v>16300</v>
       </c>
       <c r="H32" s="3">
-        <v>210000</v>
+        <v>191300</v>
       </c>
       <c r="I32" s="3">
-        <v>152000</v>
+        <v>138500</v>
       </c>
       <c r="J32" s="3">
-        <v>-384900</v>
+        <v>-350600</v>
       </c>
       <c r="K32" s="3">
         <v>153300</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>305900</v>
+        <v>278600</v>
       </c>
       <c r="E33" s="3">
-        <v>148700</v>
+        <v>135400</v>
       </c>
       <c r="F33" s="3">
-        <v>-123600</v>
+        <v>-112600</v>
       </c>
       <c r="G33" s="3">
-        <v>67900</v>
+        <v>61900</v>
       </c>
       <c r="H33" s="3">
-        <v>309500</v>
+        <v>281900</v>
       </c>
       <c r="I33" s="3">
-        <v>269700</v>
+        <v>245700</v>
       </c>
       <c r="J33" s="3">
-        <v>96500</v>
+        <v>87900</v>
       </c>
       <c r="K33" s="3">
         <v>64400</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1503,42 +1468,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>305900</v>
+        <v>278600</v>
       </c>
       <c r="E35" s="3">
-        <v>148700</v>
+        <v>135400</v>
       </c>
       <c r="F35" s="3">
-        <v>-123600</v>
+        <v>-112600</v>
       </c>
       <c r="G35" s="3">
-        <v>67900</v>
+        <v>61900</v>
       </c>
       <c r="H35" s="3">
-        <v>309500</v>
+        <v>281900</v>
       </c>
       <c r="I35" s="3">
-        <v>269700</v>
+        <v>245700</v>
       </c>
       <c r="J35" s="3">
-        <v>96500</v>
+        <v>87900</v>
       </c>
       <c r="K35" s="3">
         <v>64400</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1568,7 +1533,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1582,7 +1547,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1596,37 +1561,37 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1120100</v>
+        <v>1020200</v>
       </c>
       <c r="E41" s="3">
-        <v>972200</v>
+        <v>885500</v>
       </c>
       <c r="F41" s="3">
-        <v>1310600</v>
+        <v>1193800</v>
       </c>
       <c r="G41" s="3">
-        <v>2824000</v>
+        <v>2572200</v>
       </c>
       <c r="H41" s="3">
-        <v>2858400</v>
+        <v>2603500</v>
       </c>
       <c r="I41" s="3">
-        <v>2145200</v>
+        <v>1953900</v>
       </c>
       <c r="J41" s="3">
-        <v>3633500</v>
+        <v>3309600</v>
       </c>
       <c r="K41" s="3">
         <v>129600</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1646,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>6300</v>
+        <v>5700</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -1656,217 +1621,217 @@
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>350000</v>
+        <v>318800</v>
       </c>
       <c r="E43" s="3">
-        <v>379700</v>
+        <v>345800</v>
       </c>
       <c r="F43" s="3">
-        <v>344300</v>
+        <v>313600</v>
       </c>
       <c r="G43" s="3">
-        <v>1196000</v>
+        <v>1089400</v>
       </c>
       <c r="H43" s="3">
-        <v>1087300</v>
+        <v>990400</v>
       </c>
       <c r="I43" s="3">
-        <v>936000</v>
+        <v>852600</v>
       </c>
       <c r="J43" s="3">
-        <v>982400</v>
+        <v>894800</v>
       </c>
       <c r="K43" s="3">
         <v>1675400</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1514900</v>
+        <v>1379900</v>
       </c>
       <c r="E44" s="3">
-        <v>2472500</v>
+        <v>2252100</v>
       </c>
       <c r="F44" s="3">
-        <v>1189900</v>
+        <v>1083800</v>
       </c>
       <c r="G44" s="3">
-        <v>2298400</v>
+        <v>2093500</v>
       </c>
       <c r="H44" s="3">
-        <v>2144400</v>
+        <v>1953200</v>
       </c>
       <c r="I44" s="3">
-        <v>1636100</v>
+        <v>1490200</v>
       </c>
       <c r="J44" s="3">
-        <v>2953300</v>
+        <v>2690000</v>
       </c>
       <c r="K44" s="3">
         <v>1377500</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6322600</v>
+        <v>6654600</v>
       </c>
       <c r="E45" s="3">
-        <v>5876500</v>
+        <v>5352500</v>
       </c>
       <c r="F45" s="3">
-        <v>5269900</v>
+        <v>4800000</v>
       </c>
       <c r="G45" s="3">
-        <v>80800</v>
+        <v>73600</v>
       </c>
       <c r="H45" s="3">
-        <v>68500</v>
+        <v>62300</v>
       </c>
       <c r="I45" s="3">
-        <v>47600</v>
+        <v>43300</v>
       </c>
       <c r="J45" s="3">
-        <v>44300</v>
+        <v>40300</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9307600</v>
+        <v>9373500</v>
       </c>
       <c r="E46" s="3">
-        <v>8464600</v>
+        <v>7709900</v>
       </c>
       <c r="F46" s="3">
-        <v>8114700</v>
+        <v>7391100</v>
       </c>
       <c r="G46" s="3">
-        <v>6399200</v>
+        <v>5828700</v>
       </c>
       <c r="H46" s="3">
-        <v>6158500</v>
+        <v>5609400</v>
       </c>
       <c r="I46" s="3">
-        <v>4771200</v>
+        <v>4345700</v>
       </c>
       <c r="J46" s="3">
-        <v>4276500</v>
+        <v>3895200</v>
       </c>
       <c r="K46" s="3">
         <v>4285900</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>798400</v>
+        <v>727200</v>
       </c>
       <c r="E47" s="3">
-        <v>679400</v>
+        <v>618800</v>
       </c>
       <c r="F47" s="3">
-        <v>404300</v>
+        <v>368300</v>
       </c>
       <c r="G47" s="3">
-        <v>995000</v>
+        <v>906300</v>
       </c>
       <c r="H47" s="3">
-        <v>1818800</v>
+        <v>1656600</v>
       </c>
       <c r="I47" s="3">
-        <v>681000</v>
+        <v>620300</v>
       </c>
       <c r="J47" s="3">
-        <v>811500</v>
+        <v>739100</v>
       </c>
       <c r="K47" s="3">
         <v>538500</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2479200</v>
+        <v>3076200</v>
       </c>
       <c r="E48" s="3">
-        <v>2348200</v>
+        <v>2138800</v>
       </c>
       <c r="F48" s="3">
-        <v>2360000</v>
+        <v>2149600</v>
       </c>
       <c r="G48" s="3">
-        <v>2666900</v>
+        <v>2429100</v>
       </c>
       <c r="H48" s="3">
-        <v>2499400</v>
+        <v>2276600</v>
       </c>
       <c r="I48" s="3">
-        <v>2321200</v>
+        <v>2114200</v>
       </c>
       <c r="J48" s="3">
-        <v>1950800</v>
+        <v>1776800</v>
       </c>
       <c r="K48" s="3">
         <v>1825400</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>685800</v>
+        <v>1279700</v>
       </c>
       <c r="E49" s="3">
-        <v>986600</v>
+        <v>898600</v>
       </c>
       <c r="F49" s="3">
-        <v>489200</v>
+        <v>445600</v>
       </c>
       <c r="G49" s="3">
-        <v>1677500</v>
+        <v>1527900</v>
       </c>
       <c r="H49" s="3">
-        <v>1653100</v>
+        <v>1505700</v>
       </c>
       <c r="I49" s="3">
-        <v>1461500</v>
+        <v>1331200</v>
       </c>
       <c r="J49" s="3">
-        <v>3826900</v>
+        <v>3485700</v>
       </c>
       <c r="K49" s="3">
         <v>1225400</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1896,7 +1861,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1926,37 +1891,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>278400</v>
+        <v>273700</v>
       </c>
       <c r="E52" s="3">
-        <v>245600</v>
+        <v>223700</v>
       </c>
       <c r="F52" s="3">
-        <v>224600</v>
+        <v>204600</v>
       </c>
       <c r="G52" s="3">
-        <v>373000</v>
+        <v>339800</v>
       </c>
       <c r="H52" s="3">
-        <v>399200</v>
+        <v>363600</v>
       </c>
       <c r="I52" s="3">
-        <v>509700</v>
+        <v>464300</v>
       </c>
       <c r="J52" s="3">
-        <v>672800</v>
+        <v>612800</v>
       </c>
       <c r="K52" s="3">
         <v>502200</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1986,37 +1951,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13549400</v>
+        <v>14098500</v>
       </c>
       <c r="E54" s="3">
-        <v>12231100</v>
+        <v>11140500</v>
       </c>
       <c r="F54" s="3">
-        <v>11592700</v>
+        <v>10559100</v>
       </c>
       <c r="G54" s="3">
-        <v>12111600</v>
+        <v>11031700</v>
       </c>
       <c r="H54" s="3">
-        <v>11625600</v>
+        <v>10589000</v>
       </c>
       <c r="I54" s="3">
-        <v>9744600</v>
+        <v>8875700</v>
       </c>
       <c r="J54" s="3">
-        <v>8930300</v>
+        <v>8134000</v>
       </c>
       <c r="K54" s="3">
         <v>8377400</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2030,7 +1995,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2044,187 +2009,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2370500</v>
+        <v>2159100</v>
       </c>
       <c r="E57" s="3">
-        <v>2083900</v>
+        <v>1898100</v>
       </c>
       <c r="F57" s="3">
-        <v>1854100</v>
+        <v>1688800</v>
       </c>
       <c r="G57" s="3">
-        <v>3975900</v>
+        <v>3621400</v>
       </c>
       <c r="H57" s="3">
-        <v>3452400</v>
+        <v>3144600</v>
       </c>
       <c r="I57" s="3">
-        <v>2191400</v>
+        <v>1996000</v>
       </c>
       <c r="J57" s="3">
-        <v>3220700</v>
+        <v>2933600</v>
       </c>
       <c r="K57" s="3">
         <v>1564600</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>516900</v>
+        <v>1067700</v>
       </c>
       <c r="E58" s="3">
-        <v>320700</v>
+        <v>292100</v>
       </c>
       <c r="F58" s="3">
-        <v>758100</v>
+        <v>690500</v>
       </c>
       <c r="G58" s="3">
-        <v>1955700</v>
+        <v>1781300</v>
       </c>
       <c r="H58" s="3">
-        <v>3473200</v>
+        <v>3163500</v>
       </c>
       <c r="I58" s="3">
-        <v>1325800</v>
+        <v>1207600</v>
       </c>
       <c r="J58" s="3">
-        <v>2361500</v>
+        <v>2150900</v>
       </c>
       <c r="K58" s="3">
         <v>1219900</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5518100</v>
+        <v>5907100</v>
       </c>
       <c r="E59" s="3">
-        <v>5028400</v>
+        <v>4580000</v>
       </c>
       <c r="F59" s="3">
-        <v>4459200</v>
+        <v>4061600</v>
       </c>
       <c r="G59" s="3">
-        <v>1525700</v>
+        <v>1389700</v>
       </c>
       <c r="H59" s="3">
-        <v>1699800</v>
+        <v>1548200</v>
       </c>
       <c r="I59" s="3">
-        <v>1296900</v>
+        <v>1181200</v>
       </c>
       <c r="J59" s="3">
-        <v>1655900</v>
+        <v>1508300</v>
       </c>
       <c r="K59" s="3">
         <v>564900</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8405400</v>
+        <v>8633500</v>
       </c>
       <c r="E60" s="3">
-        <v>7433000</v>
+        <v>6770200</v>
       </c>
       <c r="F60" s="3">
-        <v>7071500</v>
+        <v>6440900</v>
       </c>
       <c r="G60" s="3">
-        <v>6479500</v>
+        <v>5901800</v>
       </c>
       <c r="H60" s="3">
-        <v>6148200</v>
+        <v>5600000</v>
       </c>
       <c r="I60" s="3">
-        <v>4361700</v>
+        <v>3972800</v>
       </c>
       <c r="J60" s="3">
-        <v>3433300</v>
+        <v>3127100</v>
       </c>
       <c r="K60" s="3">
         <v>3349400</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>899600</v>
+        <v>1769800</v>
       </c>
       <c r="E61" s="3">
-        <v>855500</v>
+        <v>779300</v>
       </c>
       <c r="F61" s="3">
-        <v>746600</v>
+        <v>680000</v>
       </c>
       <c r="G61" s="3">
-        <v>1067600</v>
+        <v>972400</v>
       </c>
       <c r="H61" s="3">
-        <v>803500</v>
+        <v>731900</v>
       </c>
       <c r="I61" s="3">
-        <v>1108000</v>
+        <v>1009200</v>
       </c>
       <c r="J61" s="3">
-        <v>1610300</v>
+        <v>1466800</v>
       </c>
       <c r="K61" s="3">
         <v>1548200</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>670700</v>
+        <v>613700</v>
       </c>
       <c r="E62" s="3">
-        <v>599200</v>
+        <v>545700</v>
       </c>
       <c r="F62" s="3">
-        <v>545100</v>
+        <v>496500</v>
       </c>
       <c r="G62" s="3">
-        <v>1141400</v>
+        <v>1039600</v>
       </c>
       <c r="H62" s="3">
-        <v>1352900</v>
+        <v>1232300</v>
       </c>
       <c r="I62" s="3">
-        <v>1309900</v>
+        <v>1193100</v>
       </c>
       <c r="J62" s="3">
-        <v>1458000</v>
+        <v>1328000</v>
       </c>
       <c r="K62" s="3">
         <v>975600</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2254,7 +2219,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2284,7 +2249,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2314,37 +2279,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10708000</v>
+        <v>11696300</v>
       </c>
       <c r="E66" s="3">
-        <v>9619100</v>
+        <v>8761400</v>
       </c>
       <c r="F66" s="3">
-        <v>9064800</v>
+        <v>8256600</v>
       </c>
       <c r="G66" s="3">
-        <v>9457100</v>
+        <v>8613900</v>
       </c>
       <c r="H66" s="3">
-        <v>8939500</v>
+        <v>8142400</v>
       </c>
       <c r="I66" s="3">
-        <v>7313300</v>
+        <v>6661200</v>
       </c>
       <c r="J66" s="3">
-        <v>6752400</v>
+        <v>6150300</v>
       </c>
       <c r="K66" s="3">
         <v>6485700</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2358,7 +2323,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2388,7 +2353,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2418,7 +2383,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2448,7 +2413,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2478,37 +2443,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1133500</v>
+        <v>846500</v>
       </c>
       <c r="E72" s="3">
-        <v>899600</v>
+        <v>819400</v>
       </c>
       <c r="F72" s="3">
-        <v>805000</v>
+        <v>733300</v>
       </c>
       <c r="G72" s="3">
-        <v>923500</v>
+        <v>841100</v>
       </c>
       <c r="H72" s="3">
-        <v>1888000</v>
+        <v>1719600</v>
       </c>
       <c r="I72" s="3">
-        <v>1403700</v>
+        <v>1278500</v>
       </c>
       <c r="J72" s="3">
-        <v>1314100</v>
+        <v>1196900</v>
       </c>
       <c r="K72" s="3">
         <v>275700</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2538,7 +2503,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2568,7 +2533,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2598,37 +2563,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2841500</v>
+        <v>2402200</v>
       </c>
       <c r="E76" s="3">
-        <v>2612000</v>
+        <v>2379100</v>
       </c>
       <c r="F76" s="3">
-        <v>2527900</v>
+        <v>2302500</v>
       </c>
       <c r="G76" s="3">
-        <v>2654600</v>
+        <v>2417900</v>
       </c>
       <c r="H76" s="3">
-        <v>2686100</v>
+        <v>2446600</v>
       </c>
       <c r="I76" s="3">
-        <v>2431300</v>
+        <v>2214500</v>
       </c>
       <c r="J76" s="3">
-        <v>2177900</v>
+        <v>1983700</v>
       </c>
       <c r="K76" s="3">
         <v>1891700</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2658,12 +2623,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2693,37 +2658,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>305900</v>
+        <v>278600</v>
       </c>
       <c r="E81" s="3">
-        <v>148700</v>
+        <v>135400</v>
       </c>
       <c r="F81" s="3">
-        <v>-123600</v>
+        <v>-112600</v>
       </c>
       <c r="G81" s="3">
-        <v>67900</v>
+        <v>61900</v>
       </c>
       <c r="H81" s="3">
-        <v>309500</v>
+        <v>281900</v>
       </c>
       <c r="I81" s="3">
-        <v>269700</v>
+        <v>245700</v>
       </c>
       <c r="J81" s="3">
-        <v>96500</v>
+        <v>87900</v>
       </c>
       <c r="K81" s="3">
         <v>64400</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2737,37 +2702,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>227900</v>
+        <v>207600</v>
       </c>
       <c r="E83" s="3">
-        <v>213600</v>
+        <v>194500</v>
       </c>
       <c r="F83" s="3">
-        <v>279200</v>
+        <v>254300</v>
       </c>
       <c r="G83" s="3">
-        <v>282500</v>
+        <v>257300</v>
       </c>
       <c r="H83" s="3">
-        <v>238200</v>
+        <v>216900</v>
       </c>
       <c r="I83" s="3">
-        <v>221900</v>
+        <v>202100</v>
       </c>
       <c r="J83" s="3">
-        <v>213800</v>
+        <v>194800</v>
       </c>
       <c r="K83" s="3">
         <v>175300</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2797,7 +2762,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2827,7 +2792,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2857,7 +2822,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2887,7 +2852,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2917,37 +2882,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>663000</v>
+        <v>603900</v>
       </c>
       <c r="E89" s="3">
-        <v>485800</v>
+        <v>442500</v>
       </c>
       <c r="F89" s="3">
-        <v>-334300</v>
+        <v>-304500</v>
       </c>
       <c r="G89" s="3">
-        <v>1187600</v>
+        <v>1081700</v>
       </c>
       <c r="H89" s="3">
-        <v>1279300</v>
+        <v>1165300</v>
       </c>
       <c r="I89" s="3">
-        <v>1254200</v>
+        <v>1142400</v>
       </c>
       <c r="J89" s="3">
-        <v>1358600</v>
+        <v>1237500</v>
       </c>
       <c r="K89" s="3">
         <v>279800</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2961,37 +2926,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-469200</v>
+        <v>-427300</v>
       </c>
       <c r="E91" s="3">
-        <v>-359400</v>
+        <v>-327400</v>
       </c>
       <c r="F91" s="3">
-        <v>-324300</v>
+        <v>-295400</v>
       </c>
       <c r="G91" s="3">
-        <v>-405300</v>
+        <v>-369200</v>
       </c>
       <c r="H91" s="3">
-        <v>-353500</v>
+        <v>-322000</v>
       </c>
       <c r="I91" s="3">
-        <v>-424500</v>
+        <v>-386700</v>
       </c>
       <c r="J91" s="3">
-        <v>-335600</v>
+        <v>-305700</v>
       </c>
       <c r="K91" s="3">
         <v>-360800</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3021,7 +2986,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3051,37 +3016,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-486900</v>
+        <v>-443500</v>
       </c>
       <c r="E94" s="3">
-        <v>-408200</v>
+        <v>-371800</v>
       </c>
       <c r="F94" s="3">
-        <v>-517900</v>
+        <v>-471700</v>
       </c>
       <c r="G94" s="3">
-        <v>-474800</v>
+        <v>-432500</v>
       </c>
       <c r="H94" s="3">
-        <v>-416400</v>
+        <v>-379200</v>
       </c>
       <c r="I94" s="3">
-        <v>-503300</v>
+        <v>-458400</v>
       </c>
       <c r="J94" s="3">
-        <v>-334900</v>
+        <v>-305000</v>
       </c>
       <c r="K94" s="3">
         <v>-336500</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3095,37 +3060,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-90000</v>
+        <v>-82000</v>
       </c>
       <c r="E96" s="3">
-        <v>-25900</v>
+        <v>-23600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="G96" s="3">
-        <v>-111300</v>
+        <v>-101300</v>
       </c>
       <c r="H96" s="3">
-        <v>-66100</v>
+        <v>-60200</v>
       </c>
       <c r="I96" s="3">
-        <v>-116100</v>
+        <v>-105700</v>
       </c>
       <c r="J96" s="3">
-        <v>-47800</v>
+        <v>-43500</v>
       </c>
       <c r="K96" s="3">
         <v>-45500</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3155,7 +3120,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3185,7 +3150,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3215,37 +3180,37 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>10800</v>
+        <v>9800</v>
       </c>
       <c r="E100" s="3">
-        <v>-536900</v>
+        <v>-489000</v>
       </c>
       <c r="F100" s="3">
-        <v>378200</v>
+        <v>344400</v>
       </c>
       <c r="G100" s="3">
-        <v>-770700</v>
+        <v>-702000</v>
       </c>
       <c r="H100" s="3">
-        <v>-163100</v>
+        <v>-148500</v>
       </c>
       <c r="I100" s="3">
-        <v>-422500</v>
+        <v>-384800</v>
       </c>
       <c r="J100" s="3">
-        <v>-481200</v>
+        <v>-438300</v>
       </c>
       <c r="K100" s="3">
         <v>342400</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3256,13 +3221,13 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>-6200</v>
+        <v>-5600</v>
       </c>
       <c r="G101" s="3">
-        <v>23600</v>
+        <v>21500</v>
       </c>
       <c r="H101" s="3">
-        <v>13300</v>
+        <v>12100</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>8</v>
@@ -3275,30 +3240,30 @@
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>186900</v>
+        <v>170200</v>
       </c>
       <c r="E102" s="3">
-        <v>-459200</v>
+        <v>-418200</v>
       </c>
       <c r="F102" s="3">
-        <v>-480200</v>
+        <v>-437400</v>
       </c>
       <c r="G102" s="3">
-        <v>-34400</v>
+        <v>-31300</v>
       </c>
       <c r="H102" s="3">
-        <v>713200</v>
+        <v>649700</v>
       </c>
       <c r="I102" s="3">
-        <v>328400</v>
+        <v>299100</v>
       </c>
       <c r="J102" s="3">
-        <v>542600</v>
+        <v>494200</v>
       </c>
       <c r="K102" s="3">
         <v>285800</v>
